--- a/metadata/user_defined_inputs.xlsx
+++ b/metadata/user_defined_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimberly.cressman\Desktop\Main Docs\NSC - R for Sentinel Sites\SETr_workflow_development\Reserve_Template\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B82C5-0C38-4EDF-838F-B31DB70D9A78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0908FE54-952F-4C3C-9AD3-8AD0851DDBBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{5BC370CD-7813-47AA-9068-C32C712860AD}"/>
+    <workbookView xWindow="2370" yWindow="915" windowWidth="14400" windowHeight="11220" activeTab="1" xr2:uid="{5BC370CD-7813-47AA-9068-C32C712860AD}"/>
   </bookViews>
   <sheets>
     <sheet name="qaqc_codes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
   <si>
     <t>Higher than "expected"</t>
   </si>
@@ -321,27 +321,6 @@
   </si>
   <si>
     <t>multi_cols</t>
-  </si>
-  <si>
-    <t>single_figwidth</t>
-  </si>
-  <si>
-    <t>single_figheight</t>
-  </si>
-  <si>
-    <t>multi_figwidth</t>
-  </si>
-  <si>
-    <t>multi_figheight</t>
-  </si>
-  <si>
-    <t>When saving graphs, what do you want their dimensions to be?</t>
-  </si>
-  <si>
-    <t>Width, when only one panel in graph</t>
-  </si>
-  <si>
-    <t>Height, when only one panel in graph</t>
   </si>
   <si>
     <r>
@@ -368,12 +347,6 @@
     </r>
   </si>
   <si>
-    <t>Width, when multiple panels (one per SET)</t>
-  </si>
-  <si>
-    <t>Height, when multiple panels (one per SET)</t>
-  </si>
-  <si>
     <t>If you want to analyze only a subset of dates:</t>
   </si>
   <si>
@@ -387,6 +360,72 @@
   </si>
   <si>
     <t>When to end, in yyyymmdd (no dashes or slashes) format</t>
+  </si>
+  <si>
+    <t>tall, skinny graphs: width</t>
+  </si>
+  <si>
+    <t>square graphs: height</t>
+  </si>
+  <si>
+    <t>square graphs: width</t>
+  </si>
+  <si>
+    <t>tall, skinny graphs: height   - example, NAVD88 along y-axis</t>
+  </si>
+  <si>
+    <t>width_tall</t>
+  </si>
+  <si>
+    <t>height_square</t>
+  </si>
+  <si>
+    <t>width_square</t>
+  </si>
+  <si>
+    <t>height_tall</t>
+  </si>
+  <si>
+    <t>width_short</t>
+  </si>
+  <si>
+    <t>height_short</t>
+  </si>
+  <si>
+    <t>When saving graphs, what do you want their dimensions to be? (inches)</t>
+  </si>
+  <si>
+    <t>wider than tall: width</t>
+  </si>
+  <si>
+    <t>wider than tall graphs: height  - example, summary plots</t>
+  </si>
+  <si>
+    <t>…for technical reports</t>
+  </si>
+  <si>
+    <t>…for outreach documents</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you want lat/long included in the informational tables? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(must be either TRUE or FALSE, all caps)</t>
+    </r>
+  </si>
+  <si>
+    <t>coords_tech</t>
+  </si>
+  <si>
+    <t>coords_outreach</t>
   </si>
 </sst>
 </file>
@@ -777,7 +816,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +867,7 @@
         <v>HMD</v>
       </c>
       <c r="J4" t="str">
-        <f>_xlfn.CONCAT(I4," ", E4)</f>
+        <f t="shared" ref="J4:J24" si="0">_xlfn.CONCAT(I4," ", E4)</f>
         <v xml:space="preserve">HMD </v>
       </c>
     </row>
@@ -844,7 +883,7 @@
         <v>HMD</v>
       </c>
       <c r="J5" t="str">
-        <f>_xlfn.CONCAT(I5," ", E5)</f>
+        <f t="shared" si="0"/>
         <v>HMD CH</v>
       </c>
     </row>
@@ -860,7 +899,7 @@
         <v>HMD</v>
       </c>
       <c r="J6" t="str">
-        <f>_xlfn.CONCAT(I6," ", E6)</f>
+        <f t="shared" si="0"/>
         <v>HMD AL</v>
       </c>
     </row>
@@ -872,11 +911,11 @@
         <v>26</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I13" si="0">$C$7</f>
+        <f t="shared" ref="I7:I13" si="1">$C$7</f>
         <v>HPD</v>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.CONCAT(I7," ", E7)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">HPD </v>
       </c>
     </row>
@@ -888,11 +927,11 @@
         <v>28</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HPD</v>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.CONCAT(I8," ", E8)</f>
+        <f t="shared" si="0"/>
         <v>HPD ST</v>
       </c>
     </row>
@@ -904,11 +943,11 @@
         <v>30</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HPD</v>
       </c>
       <c r="J9" t="str">
-        <f>_xlfn.CONCAT(I9," ", E9)</f>
+        <f t="shared" si="0"/>
         <v>HPD RT</v>
       </c>
     </row>
@@ -920,11 +959,11 @@
         <v>32</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HPD</v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.CONCAT(I10," ", E10)</f>
+        <f t="shared" si="0"/>
         <v>HPD WR</v>
       </c>
     </row>
@@ -936,11 +975,11 @@
         <v>24</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HPD</v>
       </c>
       <c r="J11" t="str">
-        <f>_xlfn.CONCAT(I11," ", E11)</f>
+        <f t="shared" si="0"/>
         <v>HPD AL</v>
       </c>
     </row>
@@ -952,11 +991,11 @@
         <v>34</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HPD</v>
       </c>
       <c r="J12" t="str">
-        <f>_xlfn.CONCAT(I12," ", E12)</f>
+        <f t="shared" si="0"/>
         <v>HPD VV</v>
       </c>
     </row>
@@ -968,11 +1007,11 @@
         <v>36</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HPD</v>
       </c>
       <c r="J13" t="str">
-        <f>_xlfn.CONCAT(I13," ", E13)</f>
+        <f t="shared" si="0"/>
         <v>HPD VH</v>
       </c>
     </row>
@@ -984,11 +1023,11 @@
         <v>38</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ref="I14:I19" si="1">$C$14</f>
+        <f t="shared" ref="I14:I19" si="2">$C$14</f>
         <v>HPL</v>
       </c>
       <c r="J14" t="str">
-        <f>_xlfn.CONCAT(I14," ", E14)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">HPL </v>
       </c>
     </row>
@@ -1000,11 +1039,11 @@
         <v>28</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HPL</v>
       </c>
       <c r="J15" t="str">
-        <f>_xlfn.CONCAT(I15," ", E15)</f>
+        <f t="shared" si="0"/>
         <v>HPL ST</v>
       </c>
     </row>
@@ -1016,11 +1055,11 @@
         <v>30</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HPL</v>
       </c>
       <c r="J16" t="str">
-        <f>_xlfn.CONCAT(I16," ", E16)</f>
+        <f t="shared" si="0"/>
         <v>HPL RT</v>
       </c>
     </row>
@@ -1032,11 +1071,11 @@
         <v>24</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HPL</v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.CONCAT(I17," ", E17)</f>
+        <f t="shared" si="0"/>
         <v>HPL AL</v>
       </c>
     </row>
@@ -1048,11 +1087,11 @@
         <v>34</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HPL</v>
       </c>
       <c r="J18" t="str">
-        <f>_xlfn.CONCAT(I18," ", E18)</f>
+        <f t="shared" si="0"/>
         <v>HPL VV</v>
       </c>
     </row>
@@ -1064,11 +1103,11 @@
         <v>36</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HPL</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT(I19," ", E19)</f>
+        <f t="shared" si="0"/>
         <v>HPL VH</v>
       </c>
     </row>
@@ -1080,11 +1119,11 @@
         <v>40</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" ref="I20:I24" si="2">$C$20</f>
+        <f t="shared" ref="I20:I24" si="3">$C$20</f>
         <v>HSM</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT(I20," ", E20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">HSM </v>
       </c>
     </row>
@@ -1096,11 +1135,11 @@
         <v>42</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HSM</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT(I21," ", E21)</f>
+        <f t="shared" si="0"/>
         <v>HSM LS</v>
       </c>
     </row>
@@ -1112,11 +1151,11 @@
         <v>44</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HSM</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT(I22," ", E22)</f>
+        <f t="shared" si="0"/>
         <v>HSM SH</v>
       </c>
     </row>
@@ -1128,11 +1167,11 @@
         <v>46</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HSM</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT(I23," ", E23)</f>
+        <f t="shared" si="0"/>
         <v>HSM RK</v>
       </c>
     </row>
@@ -1144,11 +1183,11 @@
         <v>47</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HSM</v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT(I24," ", E24)</f>
+        <f t="shared" si="0"/>
         <v>HSM SK</v>
       </c>
     </row>
@@ -1169,7 +1208,7 @@
         <v>LDP</v>
       </c>
       <c r="J26" t="str">
-        <f>_xlfn.CONCAT(I26," ", E26)</f>
+        <f t="shared" ref="J26:J35" si="4">_xlfn.CONCAT(I26," ", E26)</f>
         <v xml:space="preserve">LDP </v>
       </c>
     </row>
@@ -1181,11 +1220,11 @@
         <v>52</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ref="I27:I32" si="3">$C$26</f>
+        <f t="shared" ref="I27:I32" si="5">$C$26</f>
         <v>LDP</v>
       </c>
       <c r="J27" t="str">
-        <f>_xlfn.CONCAT(I27," ", E27)</f>
+        <f t="shared" si="4"/>
         <v>LDP AP</v>
       </c>
     </row>
@@ -1197,11 +1236,11 @@
         <v>54</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>LDP</v>
       </c>
       <c r="J28" t="str">
-        <f>_xlfn.CONCAT(I28," ", E28)</f>
+        <f t="shared" si="4"/>
         <v>LDP HP</v>
       </c>
     </row>
@@ -1213,11 +1252,11 @@
         <v>67</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>LDP</v>
       </c>
       <c r="J29" t="str">
-        <f>_xlfn.CONCAT(I29," ", E29)</f>
+        <f t="shared" si="4"/>
         <v>LDP TR</v>
       </c>
     </row>
@@ -1229,11 +1268,11 @@
         <v>56</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>LDP</v>
       </c>
       <c r="J30" t="str">
-        <f>_xlfn.CONCAT(I30," ", E30)</f>
+        <f t="shared" si="4"/>
         <v>LDP MB</v>
       </c>
     </row>
@@ -1245,11 +1284,11 @@
         <v>58</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>LDP</v>
       </c>
       <c r="J31" t="str">
-        <f>_xlfn.CONCAT(I31," ", E31)</f>
+        <f t="shared" si="4"/>
         <v>LDP WR</v>
       </c>
     </row>
@@ -1261,15 +1300,18 @@
         <v>59</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>LDP</v>
       </c>
       <c r="J32" t="str">
-        <f>_xlfn.CONCAT(I32," ", E32)</f>
+        <f t="shared" si="4"/>
         <v>LDP SR</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-3</v>
+      </c>
       <c r="C33" t="s">
         <v>60</v>
       </c>
@@ -1277,15 +1319,15 @@
         <v>61</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ref="I33:I34" si="4">$C$33</f>
+        <f t="shared" ref="I33:I34" si="6">$C$33</f>
         <v>LHE</v>
       </c>
       <c r="J33" t="str">
-        <f>_xlfn.CONCAT(I33," ", E33)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">LHE </v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>62</v>
       </c>
@@ -1293,15 +1335,15 @@
         <v>63</v>
       </c>
       <c r="I34" t="str">
+        <f t="shared" si="6"/>
+        <v>LHE</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="4"/>
-        <v>LHE</v>
-      </c>
-      <c r="J34" t="str">
-        <f>_xlfn.CONCAT(I34," ", E34)</f>
         <v>LHE CB</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>64</v>
       </c>
@@ -1313,17 +1355,17 @@
         <v>LSC</v>
       </c>
       <c r="J35" t="str">
-        <f>_xlfn.CONCAT(I35," ", E35)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">LSC </v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>5</v>
       </c>
@@ -1331,15 +1373,15 @@
         <v>7</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ref="I37:I39" si="5">$C$37</f>
+        <f t="shared" ref="I37:I39" si="7">$C$37</f>
         <v>CRM</v>
       </c>
       <c r="J37" t="str">
-        <f>_xlfn.CONCAT(I37," ", E37)</f>
+        <f t="shared" ref="J37:J53" si="8">_xlfn.CONCAT(I37," ", E37)</f>
         <v xml:space="preserve">CRM </v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>17</v>
       </c>
@@ -1347,15 +1389,15 @@
         <v>18</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>CRM</v>
       </c>
       <c r="J38" t="str">
-        <f>_xlfn.CONCAT(I38," ", E38)</f>
+        <f t="shared" si="8"/>
         <v>CRM PM</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>11</v>
       </c>
@@ -1363,15 +1405,15 @@
         <v>12</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>CRM</v>
       </c>
       <c r="J39" t="str">
-        <f>_xlfn.CONCAT(I39," ", E39)</f>
+        <f t="shared" si="8"/>
         <v>CRM SI</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>6</v>
       </c>
@@ -1379,15 +1421,15 @@
         <v>8</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" ref="I40:I44" si="6">$C$40</f>
+        <f t="shared" ref="I40:I44" si="9">$C$40</f>
         <v>CUW</v>
       </c>
       <c r="J40" t="str">
-        <f>_xlfn.CONCAT(I40," ", E40)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CUW </v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>9</v>
       </c>
@@ -1395,15 +1437,15 @@
         <v>10</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CUW</v>
       </c>
       <c r="J41" t="str">
-        <f>_xlfn.CONCAT(I41," ", E41)</f>
+        <f t="shared" si="8"/>
         <v>CUW SW</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>11</v>
       </c>
@@ -1411,15 +1453,15 @@
         <v>12</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CUW</v>
       </c>
       <c r="J42" t="str">
-        <f>_xlfn.CONCAT(I42," ", E42)</f>
+        <f t="shared" si="8"/>
         <v>CUW SI</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>13</v>
       </c>
@@ -1427,15 +1469,15 @@
         <v>14</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CUW</v>
       </c>
       <c r="J43" t="str">
-        <f>_xlfn.CONCAT(I43," ", E43)</f>
+        <f t="shared" si="8"/>
         <v>CUW IT</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>15</v>
       </c>
@@ -1443,15 +1485,15 @@
         <v>16</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CUW</v>
       </c>
       <c r="J44" t="str">
-        <f>_xlfn.CONCAT(I44," ", E44)</f>
+        <f t="shared" si="8"/>
         <v>CUW PA</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>68</v>
       </c>
@@ -1463,11 +1505,11 @@
         <v>CUS</v>
       </c>
       <c r="J45" t="str">
-        <f>_xlfn.CONCAT(I45," ", E45)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CUS </v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>70</v>
       </c>
@@ -1479,11 +1521,11 @@
         <v>COS</v>
       </c>
       <c r="J46" t="str">
-        <f>_xlfn.CONCAT(I46," ", E46)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">COS </v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>71</v>
       </c>
@@ -1495,11 +1537,11 @@
         <v>COL</v>
       </c>
       <c r="J47" t="str">
-        <f>_xlfn.CONCAT(I47," ", E47)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">COL </v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>76</v>
       </c>
@@ -1507,11 +1549,11 @@
         <v>77</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" ref="I48:I51" si="7">$C$48</f>
+        <f t="shared" ref="I48:I51" si="10">$C$48</f>
         <v>CEP</v>
       </c>
       <c r="J48" t="str">
-        <f>_xlfn.CONCAT(I48," ", E48)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CEP </v>
       </c>
     </row>
@@ -1523,11 +1565,11 @@
         <v>74</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>CEP</v>
       </c>
       <c r="J49" t="str">
-        <f>_xlfn.CONCAT(I49," ", E49)</f>
+        <f t="shared" si="8"/>
         <v>CEP AH</v>
       </c>
     </row>
@@ -1539,11 +1581,11 @@
         <v>75</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>CEP</v>
       </c>
       <c r="J50" t="str">
-        <f>_xlfn.CONCAT(I50," ", E50)</f>
+        <f t="shared" si="8"/>
         <v>CEP AP</v>
       </c>
     </row>
@@ -1555,11 +1597,11 @@
         <v>80</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>CEP</v>
       </c>
       <c r="J51" t="str">
-        <f>_xlfn.CONCAT(I51," ", E51)</f>
+        <f t="shared" si="8"/>
         <v>CEP SM</v>
       </c>
     </row>
@@ -1571,11 +1613,11 @@
         <v>79</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" ref="I52:I53" si="8">C52</f>
+        <f t="shared" ref="I52:I53" si="11">C52</f>
         <v>CSI</v>
       </c>
       <c r="J52" t="str">
-        <f>_xlfn.CONCAT(I52," ", E52)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">CSI </v>
       </c>
     </row>
@@ -1587,11 +1629,11 @@
         <v>82</v>
       </c>
       <c r="I53" t="str">
+        <f t="shared" si="11"/>
+        <v>CLY</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="8"/>
-        <v>CLY</v>
-      </c>
-      <c r="J53" t="str">
-        <f>_xlfn.CONCAT(I53," ", E53)</f>
         <v xml:space="preserve">CLY </v>
       </c>
     </row>
@@ -1603,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE737B49-75B7-4A38-A269-0AAD0BDB61C0}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,10 +1670,10 @@
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>91</v>
@@ -1642,18 +1684,18 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,56 +1703,106 @@
         <v>98</v>
       </c>
       <c r="B6" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>104</v>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>